--- a/Data Test/create_class.xlsx
+++ b/Data Test/create_class.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84509C12-2AC8-48BE-8702-10690FA36F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14CAD6-7D5B-4020-A5EE-83804C143735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>type</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>QE A</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Quality $ Engineer</t>
+  </si>
+  <si>
+    <t>Class * A</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1998F4-7F8C-44F3-A3CA-78F77B1A9AB7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,15 +496,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Data Test/create_class.xlsx
+++ b/Data Test/create_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14CAD6-7D5B-4020-A5EE-83804C143735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2804FE15-27FB-405B-B854-3F616B8D9D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,16 +62,16 @@
     <t>Quality Engineer</t>
   </si>
   <si>
-    <t>QE A</t>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
     <t>Quality $ Engineer</t>
   </si>
   <si>
-    <t>Class * A</t>
+    <t>Class A</t>
+  </si>
+  <si>
+    <t>Class A*</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +496,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -519,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
